--- a/data/trans_dic/P54_A_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>3,6; 34,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>0,0; 14,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>4,46; 25,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>0,0; 17,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>7,0; 23,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>0,0; 7,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>9,98; 60,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 53,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>12,77; 36,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 11,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>0,0; 14,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>15,1; 41,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>0,94; 31,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0,85; 9,28</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>5,88; 26,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>0,0; 11,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>7,47; 21,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>0,0; 6,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>8,53; 20,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,62; 6,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,54; 4,99</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>7,25; 22,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,0; 7,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>19,52; 37,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>1,02; 9,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>15,8; 28,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>1,13; 6,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>18,33%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22,16%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>10,94; 29,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>1,35; 13,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>11,91; 37,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>1,83; 17,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>12,83; 28,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>2,41; 11,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
     </row>
@@ -1182,37 +1183,37 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>4,3; 37,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>0,0; 24,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>5,25; 24,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>12,63; 24,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,89; 14,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,39; 3,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>15,15; 23,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,28; 4,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,86; 4,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>15,36; 22,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,07; 8,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,86; 3,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12600</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3703</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13485</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6846</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26085</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3703</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6846</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3003; 28419</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15769</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4889; 27700</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20627</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13502; 45948</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18759</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23218</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30160</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24322</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2851</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31668</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5855</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5680</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61828</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30177</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8531</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11764; 70932</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 88885</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14192</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17030; 49013</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18452</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18078</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37927; 103635</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3109; 104516</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2244; 24623</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19371</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5816</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27134</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46505</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11002</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8079; 35887</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18723</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14049</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15355; 44441</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17157</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8000</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29268; 69911</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2655; 27254</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1832; 16874</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21377</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4766</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>50785</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8334</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3535</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72162</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13099</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3535</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11407; 35919</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14451</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35145; 67835</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2164; 19246</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12208</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>53310; 96490</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4442; 26256</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11489</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23510</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8288</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18242</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6777</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41752</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15065</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14033; 37979</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2088; 20234</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9359</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9801; 30673</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2087; 20451</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27022; 59820</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6469; 30675</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7854</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10056</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14395</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2728; 23610</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14097</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6369; 29578</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>117073</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>46895</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8924</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>145654</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>26152</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>17907</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>262727</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>73046</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>26831</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>86852; 169743</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16686; 127875</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2852; 25363</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>116505; 180380</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13052; 45208</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7039; 35358</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>223774; 324304</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>39315; 156996</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>13344; 47746</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>